--- a/tests/resources/risks.xlsx
+++ b/tests/resources/risks.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 All" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 all data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 Count" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1748,4 +1749,701 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B3:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BRD Risk Category</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Technological</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Political</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BRD Primary Risk to</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BRD Internal Control</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Treat - Directive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tolerate</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BRD Residual Impact</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Very Low</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BRD Residual Likelihood</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Severity Score Risk Category</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>18</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BRD Has this Risk turned into an Issue?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tests/resources/risks.xlsx
+++ b/tests/resources/risks.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 all data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 Count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 all data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 Count" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -367,7 +367,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brief Risk Decription </t>
+          <t xml:space="preserve">Brief Risk Description </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1859,13 +1859,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1981,13 +1981,13 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -2027,13 +2027,13 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -2149,13 +2149,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -2252,13 +2252,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2420,13 +2420,13 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">

--- a/tests/resources/risks.xlsx
+++ b/tests/resources/risks.xlsx
@@ -1231,7 +1231,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -2165,10 +2165,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -2417,10 +2417,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="47">
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>

--- a/tests/resources/risks.xlsx
+++ b/tests/resources/risks.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 all data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 Count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 all data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 Count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 all data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 Count" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:L33"/>
+  <dimension ref="B3:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1005,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1013,44 +1015,49 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>What you see if all there is</t>
+          <t>wood</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Technological</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Benefits</t>
+          <t>Schedule</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Treat - Prevent</t>
+          <t>Treat - Corrective</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Very Low</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1060,44 +1067,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The sea gets deeper the further you go into it</t>
+          <t>Green lumber fallacy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Legal</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1107,44 +1099,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>screw driver</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1154,44 +1116,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>What you see if all there is</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1201,44 +1133,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>nail</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Tolerate</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Low</t>
+          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>A13</t>
+          <t>Columbia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1247,500 +1149,6 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>Memento mori and amor fati</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Technological</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>The sea gets deeper the further you go into it</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Environmental</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>hammer</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Political</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Tolerate</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Very High</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>screw driver</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Environmental</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>The sea gets deeper the further you go into it</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Memento mori and amor fati</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Legal</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>wood</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Legal</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Very Low</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Green lumber fallacy</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Legal</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>screw driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
         <is>
           <t>Memento mori and amor fati</t>
         </is>
@@ -1757,7 +1165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:F47"/>
+  <dimension ref="B3:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1799,16 +1207,16 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1818,16 +1226,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1837,7 +1245,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -1846,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1859,13 +1267,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1878,168 +1286,1573 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BRD Primary Risk to</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="D14" t="n">
         <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BRD Internal Control</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Treat - Directive</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BRD Residual Impact</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Very Low</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BRD Residual Likelihood</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Severity Score Risk Category</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BRD Has this Risk turned into an Issue?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B3:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Risk Number</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brief Risk Description </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BRD Risk Category</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BRD Primary Risk to</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BRD Internal Control</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BRD Mitigation - Actions taken (brief description)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>BRD Residual Impact</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>BRD Residual Likelihood</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Severity Score Risk Category</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>BRD Has this Risk turned into an Issue?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>What you see if all there is</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hammer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Technological</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Green lumber fallacy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Political</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Memento mori and amor fati</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Political</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Environmental</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Memento mori and amor fati</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Technological</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SoT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>What you see if all there is</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Political</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SoT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Green lumber fallacy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRD Primary Risk to</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Political</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
+          <t>SoT</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>screw driver</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Costs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Treat - Directive</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SoT</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SoT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Memento mori and amor fati</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wood</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Very Low</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Green lumber fallacy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>screw driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Memento mori and amor fati</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B3:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BRD Risk Category</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Technological</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Political</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BRD Primary Risk to</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Schedule</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Schedule</t>
+          <t>Benefits</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11</v>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BRD Internal Control</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRD Internal Control</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Treat - Prevent</t>
+          <t>Treat - Directive</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Treat - Directive</t>
+          <t>Treat - Corrective</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2055,392 +2868,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Tolerate</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BRD Residual Impact</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRD Residual Impact</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Very Low</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Very High</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Very Low</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
           <t>BRD Residual Likelihood</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>16</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>17</v>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>10</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>Severity Score Risk Category</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Severity Score Risk Category</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>16</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>16</v>
+          <t>BRD Has this Risk turned into an Issue?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BRD Has this Risk turned into an Issue?</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>7</v>
-      </c>
-      <c r="D46" t="n">
-        <v>15</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="n">
-        <v>5</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/risks.xlsx
+++ b/tests/resources/risks.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:L21"/>
+  <dimension ref="A3:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -357,6 +357,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DfT Group</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Project Name</t>
@@ -414,6 +419,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -466,6 +476,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -518,6 +533,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -570,6 +590,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -622,6 +647,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -674,6 +704,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -726,6 +761,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -778,6 +818,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -830,6 +875,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -882,6 +932,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -934,6 +989,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -986,6 +1046,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -1003,6 +1068,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -1055,6 +1125,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -1087,6 +1162,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -1104,6 +1184,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -1121,6 +1206,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -1138,6 +1228,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -1753,7 +1848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:L21"/>
+  <dimension ref="A3:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1762,6 +1857,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DfT Group</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Project Name</t>
@@ -1819,6 +1919,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -1871,6 +1976,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -1923,6 +2033,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -1975,6 +2090,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -2027,6 +2147,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -2079,6 +2204,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mars</t>
@@ -2131,6 +2261,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -2183,6 +2318,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -2235,6 +2375,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -2287,6 +2432,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -2339,6 +2489,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -2391,6 +2546,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>SoT</t>
@@ -2408,6 +2568,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -2460,6 +2625,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -2492,6 +2662,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -2509,6 +2684,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -2526,6 +2706,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Columbia</t>
@@ -2543,6 +2728,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Columbia</t>

--- a/tests/resources/risks.xlsx
+++ b/tests/resources/risks.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 all data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q2_20_21 Count" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 all data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 Count" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 all data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q1_20_21 Count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4_19_20 all data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4_19_20 Count" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,72 +356,186 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DfT Group</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Risk Number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brief Risk Description </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>BRD Risk Category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>BRD Primary Risk to</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BRD Internal Control</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BRD Mitigation - Actions taken (brief description)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BRD Residual Impact</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>BRD Residual Likelihood</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Severity Score Risk Category</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>BRD Has this Risk turned into an Issue?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AMIS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>What you see if all there is</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DfT Group</t>
+          <t>AMIS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Project Name</t>
+          <t>Mars</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Risk Number</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brief Risk Description </t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BRD Risk Category</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BRD Primary Risk to</t>
+          <t>Schedule</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BRD Internal Control</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>BRD Mitigation - Actions taken (brief description)</t>
+          <t>Treat - Prevent</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BRD Residual Impact</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>BRD Residual Likelihood</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Severity Score Risk Category</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BRD Has this Risk turned into an Issue?</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>AMIS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -431,22 +545,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>What you see if all there is</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Technological</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Costs</t>
+          <t>Schedule</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -456,7 +570,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -478,7 +592,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>AMIS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -488,22 +602,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>Green lumber fallacy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Political</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Schedule</t>
+          <t>Benefits</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -513,7 +627,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -535,7 +649,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>AMIS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -545,17 +659,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>plastic</t>
+          <t>Memento mori and amor fati</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Technological</t>
+          <t>Political</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -592,7 +706,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>AMIS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -602,22 +716,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Green lumber fallacy</t>
+          <t>Memento mori and amor fati</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Political</t>
+          <t>Technological</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Benefits</t>
+          <t>Schedule</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -649,22 +763,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memento mori and amor fati</t>
+          <t>What you see if all there is</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -674,7 +788,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Schedule</t>
+          <t>Costs</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -684,17 +798,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -706,27 +820,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mars</t>
+          <t>SoT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memento mori and amor fati</t>
+          <t>Green lumber fallacy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Technological</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -741,17 +855,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -763,7 +877,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -773,12 +887,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>What you see if all there is</t>
+          <t>hammer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -788,7 +902,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Costs</t>
+          <t>Schedule</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -798,7 +912,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -820,7 +934,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -830,32 +944,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Green lumber fallacy</t>
+          <t>screw driver</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Schedule</t>
+          <t>Costs</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Treat - Prevent</t>
+          <t>Treat - Directive</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -877,7 +991,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -887,22 +1001,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>hammer</t>
+          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Political</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Schedule</t>
+          <t>Benefits</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -912,7 +1026,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -934,7 +1048,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -944,74 +1058,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>screw driver</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Treat - Directive</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Memento mori and amor fati</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RSS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
+          <t>What you see if all there is</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Technological</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1026,224 +1105,799 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>High</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RSS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SoT</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Memento mori and amor fati</t>
+          <t>The sea gets deeper the further you go into it</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RSS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>wood</t>
+          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Schedule</t>
+          <t>Costs</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Treat - Corrective</t>
+          <t>Treat - Prevent</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Very Low</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>Low</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RSS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Green lumber fallacy</t>
+          <t>What you see if all there is</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Economic</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RSS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>screw driver</t>
+          <t>nail</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tolerate</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RSS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>A13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
+          <t>Memento mori and amor fati</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Technological</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Columbia</t>
+          <t>F9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
+          <t>The sea gets deeper the further you go into it</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rail</t>
+          <t>RPE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>hammer</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Political</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tolerate</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Economic</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>screw driver</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Costs</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The sea gets deeper the further you go into it</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RPE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Memento mori and amor fati</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Treat - Prevent</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RIG</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Columbia</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>wood</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Treat - Corrective</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Very Low</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RIG</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Green lumber fallacy</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Legal</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RIG</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>screw driver</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RIG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RIG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RIG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Memento mori and amor fati</t>
         </is>
@@ -1260,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:F41"/>
+  <dimension ref="B3:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,16 +1956,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1321,16 +1975,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1340,7 +1994,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -1349,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1362,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1381,460 +2035,574 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Environmental</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BRD Primary Risk to</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>BRD Primary Risk to</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Schedule</t>
+          <t>Costs</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
+          <t>Schedule</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Benefits</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>BRD Internal Control</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14</v>
+          <t>BRD Internal Control</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Treat - Directive</t>
+          <t>Treat - Prevent</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
+          <t>Treat - Directive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Treat - Corrective</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BRD Residual Impact</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tolerate</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>BRD Residual Impact</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Very Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
+          <t>Very Low</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
           <t>BRD Residual Likelihood</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>6</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Severity Score Risk Category</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>6</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Severity Score Risk Category</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>BRD Has this Risk turned into an Issue?</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>12</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BRD Has this Risk turned into an Issue?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>6</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16</v>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +2616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:L21"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,896 +2624,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
         <is>
           <t>DfT Group</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Project Name</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Risk Number</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t xml:space="preserve">Brief Risk Description </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>BRD Risk Category</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>BRD Primary Risk to</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>BRD Internal Control</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>BRD Mitigation - Actions taken (brief description)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>BRD Residual Impact</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>BRD Residual Likelihood</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Severity Score Risk Category</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>BRD Has this Risk turned into an Issue?</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mars</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>What you see if all there is</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mars</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>hammer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mars</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Technological</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mars</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Green lumber fallacy</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Political</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mars</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Memento mori and amor fati</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Political</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mars</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Memento mori and amor fati</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Technological</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>What you see if all there is</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Political</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Green lumber fallacy</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Economic</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>hammer</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Political</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>screw driver</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Costs</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Treat - Directive</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Treat - Prevent</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SoT</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Memento mori and amor fati</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>wood</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Legal</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Treat - Corrective</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Very Low</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Green lumber fallacy</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Legal</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Schedule</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>screw driver</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Don't you know an apparition is just a cheap date. What have you been drinking these days</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>The mind is not a vessel to be filled but a fire to be lighted</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Columbia</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Memento mori and amor fati</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:F41"/>
+  <dimension ref="B3:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,45 +2739,45 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Technological</t>
+          <t>Political</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Political</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -2849,45 +2786,45 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Legal</t>
+          <t>Technological</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environmental</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2924,16 +2861,16 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2943,16 +2880,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2962,16 +2899,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -3011,13 +2948,13 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -3027,10 +2964,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -3046,295 +2983,371 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BRD Residual Impact</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tolerate</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
+          <t>BRD Residual Impact</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>High</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Very High</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Very Low</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>BRD Residual Likelihood</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>6</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>BRD Residual Likelihood</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Severity Score Risk Category</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
           <t>High</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Very High</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>6</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Severity Score Risk Category</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>BRD Has this Risk turned into an Issue?</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>6</v>
       </c>
-      <c r="D41" t="n">
-        <v>10</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>16</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BRD Has this Risk turned into an Issue?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/risks.xlsx
+++ b/tests/resources/risks.xlsx
@@ -56,6 +56,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
